--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.121719-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.121719-1.xlsx_with_dialog_acts.xlsx
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3055,12 +3055,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4317,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5573,12 +5573,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5611,12 +5611,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5725,12 +5725,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
